--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,162 +130,142 @@
     <t>varchar2</t>
   </si>
   <si>
-    <t>findByConfirmStatus</t>
+    <t>會計日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxInquiry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢紀錄檔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo</t>
+  </si>
+  <si>
+    <t>單位</t>
+  </si>
+  <si>
+    <t>TlrNo</t>
+  </si>
+  <si>
+    <t>使用者編號</t>
+  </si>
+  <si>
+    <t>TranNo</t>
+  </si>
+  <si>
+    <t>交易代號</t>
+  </si>
+  <si>
+    <t>CalDate</t>
+  </si>
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t>decimald</t>
+  </si>
+  <si>
+    <t>TxResult</t>
+  </si>
+  <si>
+    <t>交易結果</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MsgId</t>
+  </si>
+  <si>
+    <t>訊息代號</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+  </si>
+  <si>
+    <t>錯誤訊息</t>
+  </si>
+  <si>
+    <t>nvarchar2</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>TranData</t>
+  </si>
+  <si>
+    <t>交易完整電文</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>ImportFg</t>
+  </si>
+  <si>
+    <t>交易重要註記</t>
+  </si>
+  <si>
+    <t>1:查詢結清五年後客戶資料</t>
+  </si>
+  <si>
+    <t>交易編號/帳號</t>
+  </si>
+  <si>
+    <t>MrKey</t>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>S:成功 E:失敗</t>
+  </si>
+  <si>
+    <t>SupNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管編號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCalDate</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>findByBrNo</t>
+    <t xml:space="preserve">CalDate &gt;= ,AND CalDate &lt;= </t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTransactionIdFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Entdy = ,AND TransactionId = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BrNo = ,AND ConfirmStatus = ,AND Entdy &gt;= ,AND Entdy &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BrNo = ,AND Entdy &gt;= ,AND Entdy &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxInquiry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢紀錄檔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrNo</t>
-  </si>
-  <si>
-    <t>單位</t>
-  </si>
-  <si>
-    <t>TlrNo</t>
-  </si>
-  <si>
-    <t>使用者編號</t>
-  </si>
-  <si>
-    <t>TranNo</t>
-  </si>
-  <si>
-    <t>交易代號</t>
-  </si>
-  <si>
-    <t>CalDate</t>
-  </si>
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>decimald</t>
-  </si>
-  <si>
-    <t>TxResult</t>
-  </si>
-  <si>
-    <t>交易結果</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MsgId</t>
-  </si>
-  <si>
-    <t>訊息代號</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ErrMsg</t>
-  </si>
-  <si>
-    <t>錯誤訊息</t>
-  </si>
-  <si>
-    <t>nvarchar2</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>TranData</t>
-  </si>
-  <si>
-    <t>交易完整電文</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>ImportFg</t>
-  </si>
-  <si>
-    <t>交易重要註記</t>
-  </si>
-  <si>
-    <t>1:查詢結清五年後客戶資料</t>
-  </si>
-  <si>
-    <t>交易編號/帳號</t>
-  </si>
-  <si>
-    <t>MrKey</t>
-  </si>
-  <si>
-    <t>CalDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>S:成功 E:失敗</t>
-  </si>
-  <si>
-    <t>SupNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,74 +485,74 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -884,141 +864,141 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="25" customWidth="1"/>
     <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="33" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="29" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="17"/>
+    <col min="8" max="16384" width="21.44140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>37</v>
+      <c r="B1" s="31"/>
+      <c r="C1" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>73</v>
+      <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="9"/>
@@ -1026,17 +1006,17 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1046,247 +1026,247 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <f t="shared" ref="A11:A25" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="B11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25">
         <v>8</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="25">
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="25">
         <v>6</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="25">
         <v>6</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="25">
         <v>5</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="25">
         <v>20</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>48</v>
+      <c r="B17" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>51</v>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>54</v>
+      <c r="B19" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>58</v>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>61</v>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1296,7 +1276,7 @@
       <c r="C23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="9">
@@ -1304,7 +1284,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1314,13 +1294,13 @@
       <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1330,7 +1310,7 @@
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="9">
@@ -1355,11 +1335,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1383,35 +1363,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2</t>
   </si>
   <si>
@@ -135,10 +131,6 @@
   </si>
   <si>
     <t>TxInquiry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢紀錄檔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -266,6 +258,14 @@
   <si>
     <t xml:space="preserve">CalDate &gt;= ,AND CalDate &lt;= </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢紀錄檔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -884,10 +884,10 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="18"/>
@@ -970,22 +970,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="G8" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1011,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>23</v>
@@ -1031,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="25">
         <v>8</v>
@@ -1051,13 +1051,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="25">
         <v>4</v>
@@ -1071,13 +1071,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="25">
         <v>6</v>
@@ -1091,13 +1091,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="25">
         <v>6</v>
@@ -1111,13 +1111,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="25">
         <v>5</v>
@@ -1131,13 +1131,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="25">
         <v>20</v>
@@ -1151,20 +1151,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1173,16 +1173,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -1193,16 +1193,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
@@ -1213,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -1233,20 +1233,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>12</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
@@ -1,68 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB8008B-B4FC-4605-BDFD-411067CDFD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>KeyID</t>
@@ -84,54 +95,54 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>auto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>decimald</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
   </si>
   <si>
     <t>會計日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TxInquiry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BrNo</t>
@@ -237,47 +248,72 @@
   </si>
   <si>
     <t>SupNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主管編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CalDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findByCalDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CalDate &gt;= ,AND CalDate &lt;= </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Entdy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>查詢紀錄檔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findImportFg</t>
+  </si>
+  <si>
+    <t>CreateDate asc</t>
+  </si>
+  <si>
+    <t>CalDate &gt;= ,AND CalDate &lt;= ,AND BrNo = ,AND ImportFg =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -361,6 +397,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -437,10 +480,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,115 +500,126 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{4787244B-23FE-4B2B-BAA6-009A3E0DC9B1}"/>
+    <cellStyle name="一般 2 5" xfId="5" xr:uid="{7CCBB9D6-B439-45B1-901F-9BDC7A3CB26C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,6 +710,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -685,6 +762,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -860,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G15:G16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -879,10 +973,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
@@ -894,8 +988,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
@@ -907,10 +1001,10 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
@@ -920,10 +1014,10 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="11"/>
       <c r="D4" s="21"/>
       <c r="E4" s="18"/>
@@ -931,10 +1025,10 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
@@ -944,10 +1038,10 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="11"/>
       <c r="D6" s="21"/>
       <c r="E6" s="18"/>
@@ -955,10 +1049,10 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="11"/>
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
@@ -1327,19 +1421,19 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1372,8 +1466,19 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB8008B-B4FC-4605-BDFD-411067CDFD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="10272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -285,13 +285,26 @@
     <t>CreateDate asc</t>
   </si>
   <si>
-    <t>CalDate &gt;= ,AND CalDate &lt;= ,AND BrNo = ,AND ImportFg =</t>
+    <t>CustNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate &gt;= ,AND CalDate &lt;= ,AND ImportFg = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -594,6 +607,12 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -605,21 +624,15 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{4787244B-23FE-4B2B-BAA6-009A3E0DC9B1}"/>
-    <cellStyle name="一般 2 5" xfId="5" xr:uid="{7CCBB9D6-B439-45B1-901F-9BDC7A3CB26C}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="一般 2 5" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,23 +723,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -762,23 +758,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -973,10 +952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
@@ -988,8 +967,8 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
@@ -1001,10 +980,10 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
@@ -1014,10 +993,10 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="11"/>
       <c r="D4" s="21"/>
       <c r="E4" s="18"/>
@@ -1025,10 +1004,10 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
@@ -1038,10 +1017,10 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="11"/>
       <c r="D6" s="21"/>
       <c r="E6" s="18"/>
@@ -1049,10 +1028,10 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="11"/>
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
@@ -1121,7 +1100,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
-        <f t="shared" ref="A11:A25" si="0">A10+1</f>
+        <f t="shared" ref="A11:A26" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1244,22 +1223,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
+      <c r="B17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="E17" s="25">
+        <v>7</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
@@ -1267,19 +1244,21 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
@@ -1287,16 +1266,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
@@ -1307,16 +1286,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -1327,87 +1306,107 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>12</v>
+      <c r="B22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E24" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>6</v>
       </c>
     </row>
@@ -1428,12 +1427,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1466,14 +1465,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5F092-CF48-42D4-BA85-C658CBA63F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="10272" activeTab="1"/>
+    <workbookView xWindow="168" yWindow="720" windowWidth="22872" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -628,11 +628,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
-    <cellStyle name="一般 2 5" xfId="5"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,6 +723,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -758,6 +775,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -933,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1427,10 +1461,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxInquiry.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5F092-CF48-42D4-BA85-C658CBA63F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0AC762-175A-43C6-8A6B-3E6A65B2E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="720" windowWidth="22872" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -298,6 +288,14 @@
   </si>
   <si>
     <t>CalDate &gt;= ,AND CalDate &lt;= ,AND ImportFg = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy &gt;= ,AND Entdy &lt;= ,AND ImportFg = ,AND CustNo &gt;= ,AND CustNo &lt;=</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntdyImportFg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,7 +524,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -538,9 +536,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,13 +545,13 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -568,9 +563,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -586,9 +578,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,18 +588,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,477 +953,477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="27" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="29" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="25" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="15"/>
+    <col min="8" max="16384" width="21.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <f t="shared" ref="A11:A26" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>4</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>6</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>6</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>5</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>20</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>7</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
+      <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1462,11 +1445,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1499,14 +1482,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
